--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -562,6 +562,209 @@
     <t>PID-5, PID-9</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -603,9 +806,6 @@
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
@@ -823,26 +1023,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -970,10 +1151,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1489,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1526,7 +1703,7 @@
     <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1536,7 +1713,7 @@
     <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3089,7 +3266,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3098,7 +3275,7 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>175</v>
@@ -3109,12 +3286,8 @@
       <c r="M14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3162,31 +3335,31 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3194,21 +3367,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3217,23 +3390,21 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3257,55 +3428,55 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3313,10 +3484,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3333,25 +3504,25 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3376,13 +3547,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3400,7 +3571,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3415,27 +3586,27 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3452,25 +3623,25 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3519,7 +3690,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3534,16 +3705,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3551,24 +3722,24 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>81</v>
@@ -3577,20 +3748,18 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3638,13 +3807,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -3653,16 +3822,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3670,21 +3839,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -3693,21 +3862,21 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -3731,13 +3900,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3755,13 +3924,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -3770,16 +3939,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3787,10 +3956,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3801,7 +3970,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3810,23 +3979,19 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -3874,13 +4039,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -3889,16 +4054,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -3906,10 +4071,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3929,23 +4094,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -3993,7 +4154,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4008,16 +4169,16 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4025,10 +4186,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4039,7 +4200,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4048,22 +4209,20 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4112,31 +4271,31 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4144,10 +4303,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4158,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4167,19 +4326,23 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4227,31 +4390,31 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4259,21 +4422,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4282,21 +4445,23 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4320,13 +4485,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4344,31 +4509,31 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4376,45 +4541,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4463,34 +4628,34 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -4509,29 +4674,31 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4556,13 +4723,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4586,7 +4753,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4626,7 +4793,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4635,20 +4802,22 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4703,7 +4872,7 @@
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -4712,16 +4881,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4729,10 +4898,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4743,7 +4912,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4755,19 +4924,17 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4792,13 +4959,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4816,13 +4983,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -4831,16 +4998,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4848,10 +5015,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4874,17 +5041,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4933,7 +5102,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4948,7 +5117,7 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>163</v>
@@ -4957,7 +5126,7 @@
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4965,10 +5134,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4979,7 +5148,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -4991,17 +5160,19 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5026,13 +5197,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5050,13 +5221,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5065,7 +5236,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>163</v>
@@ -5074,7 +5245,7 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5082,10 +5253,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5096,7 +5267,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5108,17 +5279,19 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5167,22 +5340,22 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>163</v>
@@ -5191,7 +5364,7 @@
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5199,10 +5372,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5225,13 +5398,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5282,7 +5455,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5294,13 +5467,13 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5314,14 +5487,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5340,20 +5513,18 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>136</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5401,7 +5572,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5413,13 +5584,13 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5433,42 +5604,46 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5516,22 +5691,22 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5548,14 +5723,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5574,18 +5749,18 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5609,13 +5784,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5633,7 +5808,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5645,19 +5820,19 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5665,45 +5840,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5752,31 +5925,31 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -5784,10 +5957,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5795,10 +5968,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5810,19 +5983,19 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5847,13 +6020,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5871,13 +6044,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -5886,16 +6059,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5903,10 +6076,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5929,19 +6102,17 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5990,7 +6161,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6005,16 +6176,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6022,21 +6193,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6048,18 +6219,18 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6083,13 +6254,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6107,13 +6278,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6122,7 +6293,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>163</v>
@@ -6131,7 +6302,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6139,10 +6310,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6162,22 +6333,20 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6226,7 +6395,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6235,22 +6404,22 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6258,10 +6427,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6272,32 +6441,28 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6345,13 +6510,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6360,7 +6525,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>163</v>
@@ -6377,10 +6542,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6391,7 +6556,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6403,16 +6568,20 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6460,25 +6629,25 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6492,21 +6661,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6518,17 +6687,15 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6577,19 +6744,19 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>163</v>
@@ -6609,14 +6776,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6629,26 +6796,24 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O44" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6696,7 +6861,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6711,7 +6876,7 @@
         <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -6728,44 +6893,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -6813,31 +6980,31 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -6845,10 +7012,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6868,19 +7035,23 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -6904,13 +7075,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -6928,7 +7099,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>89</v>
@@ -6943,23 +7114,1080 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO46">
+  <autoFilter ref="A1:AO55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6969,7 +8197,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
